--- a/server/seeds/contents.xlsx
+++ b/server/seeds/contents.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\胡显\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0FE681-B7BF-4141-A4F4-49C066C6D194}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="通知" sheetId="35" r:id="rId1"/>
     <sheet name="培训" sheetId="36" r:id="rId2"/>
     <sheet name="频道" sheetId="37" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>标题</t>
   </si>
@@ -46,13 +33,13 @@
     <t>分类</t>
   </si>
   <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>关于参加2018年双色球与福彩公益人 “益路同行”活动的通知</t>
+  </si>
+  <si>
     <t>管理员</t>
-  </si>
-  <si>
-    <t>最新活动</t>
-  </si>
-  <si>
-    <t>关于参加2018年双色球与福彩公益人 “益路同行”活动的通知</t>
   </si>
   <si>
     <t>http://ptomntpm6.bkt.clouddn.com/notices/1-1.jpg
@@ -79,8 +66,10 @@
 2018年11月26日</t>
   </si>
   <si>
-    <t>图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>最新活动</t>
+  </si>
+  <si>
+    <t>/uploads/images/notices/1-1.jpg</t>
   </si>
   <si>
     <t>关于举办2019年首届“百佳公益组织” 评选活动的通知</t>
@@ -124,8 +113,7 @@
 　　二O一九年四月</t>
   </si>
   <si>
-    <t>最新活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>/uploads/images/notices/2-1.jpg</t>
   </si>
   <si>
     <t>我县2019年爱心送考大型公益活动正式启动</t>
@@ -137,6 +125,9 @@
 对于爱心人士来说，关心考生就像关心自己的孩子一样，通过无偿服务奉献，传递着向上向善的社会正能量。
 爱心助考活动中，北京能源阳城加油站也心系广大莘莘学子，积极加入爱心助考的行列，在往年工作的基础上，进一步完善爱心服务，开设了高考加油绿色通道，为180多辆爱心送考车免费赠送80公里里程的油料，确保考生顺利参加考试。
 据了解今年参加送考活动的共有来自社会各界的180多辆“爱心送考车”，考生可凭准考证免费乘坐，一名家长可免费随行，“爱心送考车”随机搭载考生，途经临时交通管制地点时，交警可优先指挥放行，确保安全、准时、准确地将考生送到考场，考生考试结束后，可免费乘坐“爱心送考车”返家。</t>
+  </si>
+  <si>
+    <t>/uploads/images/notices/3-1.jpeg</t>
   </si>
   <si>
     <t>小鹰计划2019（乡村振兴项目）</t>
@@ -195,7 +186,15 @@
        微信群：添加微信“xiaoyingjihua2018”为好友拉进招募咨询群
        官方微博/微信号：友成小鹰计划
        地址：北京市朝阳区新源南路京城大厦2301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动通知</t>
+  </si>
+  <si>
+    <t>/uploads/images/notices/4-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阳城县新时代文明实践志愿服务 暨“3·5”学雷锋志愿服务活动启动 </t>
   </si>
   <si>
     <t xml:space="preserve">今天是第56个学雷锋纪念日。
@@ -220,15 +219,9 @@
 启动仪式之后，志愿者们纷纷走上街头，社区，深入农村、企业、学校和敬老院等，开展各类服务活动。
 http://ptomntpm6.bkt.clouddn.com/notices/15.jpeg
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">阳城县新时代文明实践志愿服务 暨“3·5”学雷锋志愿服务活动启动 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploads/images/notices/1.jpeg</t>
   </si>
   <si>
     <t>百川公益支教招募</t>
@@ -267,27 +260,15 @@
        4、微信公众号：百川公益基金会、爱在百川
        5、邮箱：liulei@bjbcgy.org
        6、QQ群：479555754</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最新招募</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploads/images/recruit/1-1.jpg</t>
   </si>
   <si>
     <t>报名进行时！温州52家公益机构志愿者招募</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本木源助学义工招募（80人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬奥会志愿者年底开招</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>满天星支教计划2019秋季招募</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3月24日下午，2019年“到公益机构去”温州志愿者春季派遣行动现场招募会在温州市青少年活动中心举行，现场13家公益机构为其27个公益岗位招募志愿者，当天共有93名志愿者及23家志愿服务组织团队与公益机构双向选择成功。
@@ -296,7 +277,12 @@
        据悉，2019春季，共青团温州市委、温州市志愿者协会共推出52家公益机构82个公益服务岗位，通过线上线下渠道同步向社会招募志愿者，现线下招募会已经结束，线上报名仍在持续中。
        记者了解到，报名成为志愿者的热心市民需年龄在15周岁以上，身体健康，热心公益事业，甘于奉献；每周能抽出半天以上时间到公益机构服务，并坚持3个月以上；且符合报名岗位要求。为了保障志愿者的权益，志愿者在服务时免费享受人身意外保险、记录服务时长、增长公益积分以及兑换公益礼品等。
        温州市志愿者培训学院还将为志愿者提供岗前培训，部分公益机构还给出了外出学习参观、提供绿色通道、享受健康体检套餐等特殊福利。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploads/images/recruit/2-1.jpg</t>
+  </si>
+  <si>
+    <t>本木源助学义工招募（80人）</t>
   </si>
   <si>
     <t>组织简介：
@@ -345,14 +331,24 @@
        4、微信公众号：mgbmyzxxh
        5、邮箱：2228686399@qq.com
        6、QQ群：217085837</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploads/images/recruit/3-1.jpg</t>
+  </si>
+  <si>
+    <t>冬奥会志愿者年底开招</t>
   </si>
   <si>
     <t>3月15日上午，人民大会堂中央大厅北侧举行第三场“代表通道”集中采访活动。全国人大代表、北京市副市长、冬奥会组委执行副主席张建东回答记者提问时介绍，现在离冬奥会开幕的时间越来越近，不到三年的时间。今年是冬奥会筹办承上启下的关键一年，一个重要的特点就是在继续推进场馆和基础设施的建设，工作中心要逐步向场馆运行等转型。
 http://ptomntpm6.bkt.clouddn.com/recruit/4-1.jpg
 他说，我们在做好日常筹备工作的同时，今年还需要重点抓好三项工作。第一，全面推进场馆和基础设施建设；第二，我们不仅要把场馆建设好，还要把场馆运行好；第三，通过举办一系列的测试赛，对场馆管理和场馆运行进行检验。
 　   　张建东表示，今天借这个机会，向媒体朋友通报一下今年几项重要节点的活动，5月份我们举办冬奥会开幕会倒计时一千天活动，下半年将会发布冬奥会和冬残奥会的吉祥物，今年年底将会举办面向全球的冬奥会志愿者招募活动。总之，今年筹办任务很重，我们将会在社会各界的大力支持下，全力以赴地做好筹办工作，绝不辜负党中央的重托和全国人民的希望。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploads/images/recruit/4-1.jpg</t>
+  </si>
+  <si>
+    <t>满天星支教计划2019秋季招募</t>
   </si>
   <si>
     <t>你离你的梦想有多远？不，你不是最远的。你可以去山里看看，问一问那里的孩子们，他们离梦想有多远！我们能做的不多，带去的很少。可古人说过了，莫以善小而不为。我相信，终有一天，万千江河可汇成大海。你，愿意做那其中的江河吗？真正的教育是发掘自身的天赋与热爱，找到可以为之奋斗一生的事业。这便是教育的真谛，也是人生活的意义所在。支教是一份需要认真的态度和极强责任心的工作，申请支教务必三思而后行。
@@ -422,7 +418,9 @@
 8、一份无法忘却的人生体验；
 9、一群志同道合的良师益友。
 注：因个人原因未完成支教者，不发放补贴及证书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploads/images/recruit/5-1.jpg</t>
   </si>
   <si>
     <t>“七彩假期”志愿服务项目部署</t>
@@ -432,29 +430,38 @@
        今年是团中央等四部委联合部署实施“七彩假期”志愿服务项目第4年。4年来，超过10万名青年志愿者积极参与“七彩假期”志愿服务项目，带领、帮助近百万少年儿童度过了快乐、充实的暑假。仅2018年，全国就有3800多个青年之家、七彩小屋、乡村学校少年宫所在农村小学、乡镇、街道组织实施“七彩假期”志愿服务项目，受到服务地广大少年儿童、家长和当地党政领导的热烈欢迎和积极肯定。“七彩假期”志愿服务项目已成为基层团组织服务当地经济社会发展的重要抓手，成为高校团组织参与精准扶贫和乡村振兴的重要载体，成为共青团关爱农村留守儿童和随迁子女的重要品牌。
        http://ptomntpm6.bkt.clouddn.com/train/1-1.jpg
        据团中央青年志愿者行动指导中心负责同志介绍，2019年“七彩假期”志愿服务项目的部署进一步强调了项目的制度化运行，以确保服务实效作为各项工作的出发点。一是强调部门协同。各级团组织具体负责该项目的统筹实施，各级文明办、教育、民政部门将在阵地共享、队伍共建、资金保障、典型选树等方面给予全力支持。二是要求上下联动。乡镇（街道）、县（区）团组织重点做好服务点需求信息的审核和汇总，上级团组织和相关部门在招募、对接志愿服务团队、整合资金资源等方面给予积极支持。三是突出品牌互助。“七彩假期”志愿服务项目的实施，可以与大学生“三下乡”社会实践活动、“返家乡”社会实践活动、“青年之家”建设、大学生志愿服务西部计划更加有机地结合。四是强调突出实效。优先支持志愿服务团队在贫困地区实施“七彩假期”志愿服务项目。中国青年志愿者协会和中国少年儿童新闻出版总社联合制作了“七彩假期”活动包，包含活动标识、辅导教具、学习用品等，向有需要的志愿服务团队免费发放，助力志愿服务团队更加专业地与少年儿童互动。五是鼓励长期结对。中国青年志愿者协会将对推动长期结对的青年志愿服务组织、高校团委和市、县团委予以通报表扬。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训通知</t>
+  </si>
+  <si>
+    <t>/uploads/images/train/1-1.jpg</t>
   </si>
   <si>
     <t>2019“兰马”志愿者培训工作开始</t>
-  </si>
-  <si>
-    <t>2019国际田联路跑会议志愿者培训启动</t>
-  </si>
-  <si>
-    <t>亿滋希望厨房计划工作者培训开始</t>
   </si>
   <si>
     <t xml:space="preserve"> 5月13日，记者从“兰马”组委会获悉：2019“兰马”志愿者培训工作已于日前在西北师大知行学院、兰州交通大学、兰州城市学院、兰州现代职业技术学院同时展开。
        2019“兰马”赛志愿者培训总人数超过4300人。参训人员主要由来自兰州大学、西北师范大学、兰州理工大学、兰州交通大学、兰州城市学院、兰州文理学院、兰州现代职业技术学院等10所在兰高校青年大学生志愿者和兰州市青年志愿者协会的社会志愿者组成。培训工作于5月11日起集中展开，至5月28日结束。每位志愿者将接受不少于8个课时的专业技能培训，内容包括队列训练、礼仪、密集人群管理、突发事件处理、医疗急救技术等多个方面。担任此次培训的教官是兰州市红十字会、甘肃蓝天救援队、甘肃方舟救援志愿服务队的专项志愿者。
 http://ptomntpm6.bkt.clouddn.com/train/2-1.jpg
 共青团兰州市委相关负责人表示：“兰马”一路跑来，一步一次飞跃，成为“国际金标赛事”，离不开兰州青年志愿者们热情专业的服务。“他们是‘兰马’忠实的‘后援团’，不论是赛前、赛中还是赛后，志愿者的身影遍布‘兰马’赛的每一个环节，正是有了他们的优质服务，才确保了每届‘兰马’赛的顺利举办。”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploads/images/train/2-1.jpg</t>
+  </si>
+  <si>
+    <t>2019国际田联路跑会议志愿者培训启动</t>
   </si>
   <si>
     <t>5月19日，由共青团兰州市委组织的“2019国际田联路跑会议志愿者培训班开班仪式”在兰州大学科学馆报告厅举办。据悉，2019国际田联路跑会议将于今年5月30日至6月3日在兰州举办，这是国际田联路跑会议首次落户中国。5月中下旬，经过全方位评审和层层遴选，共有120名大学生成功入选为本次赛会的优秀志愿者。
 http://ptomntpm6.bkt.clouddn.com/train/3-1.jpg
 开班仪式上，青年志愿者代表黄迎做了表态发言。她说，能够成为本次赛会的志愿者，自己在感到光荣的同时，也肩负了神圣而重要的使命。在志愿服务期间一定会践行“奉献、友好、互助、进步”的志愿者精神。用青春为志愿服务添彩，用激情为世界展示活力兰州，文明兰州。之后，青年志愿者代表杨坤带领全体志愿者宣誓。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uploads/images/train/3-1.jpg</t>
+  </si>
+  <si>
+    <t>亿滋希望厨房计划工作者培训开始</t>
   </si>
   <si>
     <t>5月30日，由中国青少年发展基金会（以下简称“中国青基会”）和亿滋中国共同主办，中国疾病预防控制中心营养与健康所指导的“亿滋希望厨房——营养健康活力计划”（以下简称“亿滋希望厨房计划”）第二期地方营养工作者培训在湖北省秭归县举办。这是该项目启动十周年之际的一次交流大会，来自湖北、广西等地的100多名学生营养工作者在两天内不但获得了营养健康知识和国家相关政策的培训，还实地观摩了归州镇航天希望小学“亿滋希望厨房计划”项目成果展示。同时，在“六一国际儿童节”的前夕，亿滋员工志愿者与学校师生共同开展了一场生动活泼的“健康校园趣味运动会”。
@@ -462,178 +469,12 @@
 http://ptomntpm6.bkt.clouddn.com/train/4-1.jpg
 亿滋大中华区总裁范睿思先生表示：“作为亿滋大中华区新一任管理者，我非常震撼中国的社区项目发展的如此成熟。中国青基会与中国疾病预防控制中心在这十年中细致工作，希望厨房一直感动和激励着我们的每一位员工。通过项目的不断开展，我们不仅培育了农村青少年儿童健康的生活方式，也大大提升了亿滋员工的企业自豪感。”
        在秭归县举办的地方营养工作者培训会上，中国疾病预防控制中心营养与健康所学生营养室张倩研究员为大家解析了我国学生营养健康状况及近期国家政策措施。张倩表示：“我国儿童青少年的营养状况自上世纪八十年代以来有了很大提升，但目前农村地区儿童的营养不良、贫血等问题仍有突出表现，同时超重肥胖也开始浮现。营养健康活力计划项目为学生营养改善做出了积极贡献，我愿和在座的一线地方营养工作者共同面对挑战，努力让孩子们长的更健康。”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>培训通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技素养提升计划助力村小</t>
-  </si>
-  <si>
-    <t>人工智能”“智能制造”“航空航天”“农业科学”“生命科学”……以此为主题的科技课程、教材、教具，将被捐赠到云南、江西、广西等20余省区1000所农村小学，相关校长和教师也将获得培训。这是6月18日在京举行的青少年科技创新教育研讨会上启动的“科技素养提升计划”的主要内容。
-       此次研讨会由科技日报社、中国平安集团、中国下一代教育基金会联合中国教育装备行业协会创造教育分会、南京师范大学、清华大学等机构共同举办。捐赠课程的设计，教材、教具的开发工作由教育部普通高中技术课程标准组组长、南京师范大学教育科学学院院长顾建军教授领衔完成。
-【图片1】
-10年来，中国平安集团在科技领域投入超500亿元，此次利用自身优势，总计投入3858万元，赋能科教育人事业。集团副董事长孙建一表示，“这是企业的社会责任之一，中国平安愿意在下一代身上投入足够的资源，为国家培养科技素质高、创新能力强的青年后备军”。去年5月，科技日报社发布AI教育公益助学千人计划，经过一年努力，其与中国平安共同打造的“科普实验室”作为阶段性成果，列入2018年全国科技活动周重大示范活动，最新计划则是AI公益助学行动升级版。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技科普</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育公平的“全纳”解法</t>
-  </si>
-  <si>
-    <t>全纳教育需要教师“零拒绝”，满足儿童多样化需求。不仅满足残疾儿童的需求，还要满足智力超常儿童的需求，以及有其他特殊需要儿童的需求，并能对他们进行个性化教学、差异化教学。
-       近年来，全纳教育越来越受到重视。全纳教育倡导教育公平，机会均等，反对歧视，反对排斥平等的教育现象，强调教育覆盖所有适龄儿童，正规教育系统负责所有儿童的教育，普通学校要给有特殊教育需要的儿童提供学习机会、容纳所有的学生。1994年6月10日在西班牙召开的世界特殊需要教育大会上通过了《萨拉曼卡宣言》，该宣言提出了“全纳教育”这一新的教育理念。全纳教育有助于实现教育公平，进而促进社会公平进程。发展全纳教育，需要从建立健全全纳法律法规、培养全纳教师、建立健全全纳支持系统等方面进行努力。
-【图片1】
-建立健全全纳法律法规
-       建立健全全纳法律法规，是我国全纳教育发展的需要，也是其发展的制度保障。
-       美国的全纳教育得以快速发展，与其立法保障是分不开的。美国1975年颁布了《所有残疾儿童教育法案》，后又几经修订完善，在保障残疾儿童享受平等教育方面发挥了积极作用。在1986年又颁布了《残疾儿童保护法》，1990年颁布了《美国残疾人法案》，2001年颁布了《不让一个儿童落后法案》等。几乎每10年就有一部相关法案出台，不断促进全纳教育发展，对教育公平起到了重要保障作用。
-       同样，英国在最近40年的发展过程中，颁布、修订了近十部教育法规。《1976年教育法》第十条明确了支持把残疾儿童置于普通学校，与普通儿童一起受教育的做法。1978年的《沃洛克报告》认为，应该用“学习困难儿童”来取代“残障儿童”的说法。《1981年教育法》中提出保障特殊教育需要，大大促进了英国全纳教育的发展。《1988年教育改革法》、《1993年教育法》为特殊需要教育确立了工作系统。1994年、1997年英国两次对教育法进行了修订，这些为英国的全纳教育发展提供了法律保障。
-       我国与全纳教育相关的法律法规主要有《教育法》《未成年人保护法》《残疾人保障法》等，比较薄弱，迫切需要对全纳政策法规进行研究，出台全纳立法，力争让每个孩子都能接受公平的教育。
-【图片2】
-培养全纳教师
-       根据全纳教育的要求，一方面，教师应具有全纳教育理念；另一方面，教师应具备较高的全纳教育素养。
-       全纳教育要求教师能够根据学生的不同水平、不同文化背景，根据不同学生的需求，进行个别教育，实现个性化教育。这就要求教师能够掌握多层次的教育知识和教学技能。因此，全纳教师的培养势在必行。应根据全纳教育的特点，对教师教育课程内容进行相应的调整优化，重新组织调整课程内容。
-【图片3】
-建立健全全纳支持系统
-       首先，加大对全纳教育的经费投入，建立健全经费保障体系。随着国家的大力支持，我国的全纳教育发展呈快速发展态势。全纳教育的经费主要来源于国家的政策性投入，来自民间组织的投入和个人捐助比重较小。在加大政府对全纳教育投入的同时，还应呼吁全社会关注全纳教育，并对其进行经费资助。
-       中共中央、国务院2008年颁布了《关于促进残疾人事业发展的意见》，要求完善残疾学生助学政策，保障残疾学生与普通适龄儿童一样享有免费接受义务教育的权利。现实中，除了学费之外，特殊需要儿童还需要支付大量的住宿费、交通费、辅助用具费、医疗康复费等，这迫切需要社会分担。
-       此外，全纳师资培养的成本较高。全纳教师职业认同感有待提高，教师挫折感强，要留住这类人才，必须提高全纳教师的社会地位和职业幸福感。这都需要政府的大力投入，以形成中央财政、地方各级财政专项投入的保障体系，做到专款专用。在此基础上，加大全纳教育的宣传，争取更多社会爱心人士的资助。
-       其次，营造全纳社会环境。一方面，配置全纳的社会资源，比如街道、建筑物、公用设备等考虑全纳的元素，设计建造时考虑特殊需要人群的无障碍使用。另一方面，各社区应建立全纳教育活动场所。场所应具有宣传并普及全纳教育知识的功能，能够进行简单康复知识的宣传，能够从事简单的医疗康复训练。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论政策</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>青少年阅读教育关爱公益行动启动</t>
-  </si>
-  <si>
-    <t>素质教育</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> “扶贫先扶志、扶贫必扶智”，孩子是未来的希望，让家庭有困难的孩子们接受到良好的教育，是扶贫工作的重要任务，也是阻断贫困代际传递的重要途径。为协助推动脱贫攻坚，发挥全民阅读推广活动的知识载体作用，由书香中国·北京阅读季领导小组办公室和中国国际扶贫中心共同指导，中国高科集团主办的“青少年阅读教育关爱公益行动”于6月10日在北京市八一学校启动。
-【图片1】
-中国国际扶贫中心副主任谭卫平，中共北京市委宣传部出版处副处长丁惠，中国国际扶贫中心干部贺胜年，北大方正集团有限公司助理总裁陈继友，中国高科集团股份有限公司代行总裁朱怡然，北京市八一学校书记牛震云、北京市八一学校小学部主任陈军，北京大阅文化传播有限公司总经理刘颖等相关领导共同出席了启动活动。活动当天，北京市八一学校学生代表向全校师生发起了为贫困山区捐赠图书的倡议。谭卫平、丁惠、陈继友、朱怡然共同带领号召同学们向贫困山区学校赠书。北京市八一学校学生代表诵读表演《草房子》选段。
-       据主办方介绍，“青少年阅读教育关爱公益行动”将于2019年6月至10月期间，通过开展社区流动书展，呼吁社会关注贫困地区青少年阅读教育，提高市民阅读意识。同时，邀请北京金牌阅读推广人和阅读专家前往四川凉山、贵州雷山的贫困山区学校开展阅读教育讲座，鼓励青少年“多读书、读好书、善读书”，并为当地青少年捐赠实体图书及音频“公益阅读课”，为孩子们筑造知识的殿堂，共建书香校园。 此次“青少年阅读教育关爱公益行动”的举办，旨在传递教育温度、关爱青少年健康成长，期望能够通过阅读教育，激发四川凉山、贵州雷山贫困地区孩子们的读书热情、培育科学思维，更好地用阅读扶智力、扶志气。
-【图片2】
-中国国际扶贫中心副主任谭卫平
-中国国际扶贫中心副主任谭卫平在致词中指出，党的十八大以来，以习近平同志为核心的党中央把脱贫攻坚作为全面建成小康社会的突出短板和底线目标，实施精准扶贫精准脱贫方略，6年来创造了减贫史上的最好成绩。包括北京市八一学校在内的广大中小学生，身在北京、享有丰富的阅读资源，想看什么书，可以去北京的各大图书馆找，也可以上网或者用手机查，非常便利。
-       但是，贫困地区的孩子们可能就没有这样的条件：一是缺少阅读的书籍和便利的网络，二是尚未养成阅读的习惯。书香中国·北京阅读季这次与中国高科集团开展的“青少年阅读教育关爱公益行动”活动，聚焦四川凉山、贵州雷山等贫困程度较深的地区，重点关注这些地区的学校和青少年，可以说是恰逢其时，是服务脱贫攻坚的大局，意义非凡。其中，贵州省雷山县是国务院扶贫办的定点扶贫县。通过阅读教育，其实是要为这些贫困地区的青少年开启一扇窗，让智慧的阳光照进他们的生活，让孩子们的精神世界更丰富，让孩子们从阅读中了解外面的世界，让孩子们通过阅读激发自己的兴趣并为之努力奋斗，让孩子们通过阅读教育鼓起走出贫困、走出大山的勇气。
-【图片3】
-中国高科集团股份有限公司代行总裁朱怡然
-中国高科集团股份有限公司代行总裁朱怡然在讲话中指出，新时代的教育公益需要探索如何让各个地区的孩子都能够公平地享受到更优质的教育机会。作为致力于协助推动教育发展的企业，中国高科集团更重视教育方式方法的创新，希望通过承担企业社会责任，关爱青少年阅读教育，发挥自身教育资源及平台优势，凝聚社会各界多方力量奉献爱心，协助推动教育均衡化的发展和教育公平的实现。从实体图书捐赠、专家现场辅导、公益阅读课捐赠三个方面同时发力，为贫困地区的孩子们打造一个深层次、全方位的阅读环境。
-       为响应党中央“坚决打赢扶贫攻坚战”的号召，认真落实北京市委市政府关于做好扶贫协作和支援合作决策部署，按照书香中国·北京全民阅读领导小组年度工作整体规划，近年来积极推进“扶贫”工作，从2018年推出首都新闻出版“扶贫+阅读扶智计划”活动，到2019年“青少年阅读教育关爱公益行动”，都是为凝聚广大社会力量，共同行动，共同努力，助力打赢扶贫攻坚战，贡献应有之力。
-       中国高科集团于1992年由教育部牵头，国内多所著名高等院校共同发起创立，是具有高校背景并且专注于教育领域的A股上市公司。集团拥有强大的社会公信力及产业整合优势，坚持把“支持国家发展战略，以上市公司平台反哺教育”作为己任，积极承担企业社会责任，心系青少年健康成长，助力国家推动教育扶贫及教育公平，努力为我国教育事业的发展贡献力量。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>去震区做公益？劣迹明星的公益翻身套路该歇歇了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>许久不见的翟天临上热搜了，这一次不是演戏和学术造假纷争，而是在宜宾的地震灾区做公益。其实，这并非坏事，甚至是好事，至少有心就好。不过，这更像是劣迹明星的公益套路。
-从网络曝光的图片来看，翟天临头戴志愿者红帽，左手还戴着一个志愿者的红色袖套，脚蹬一双夹趾拖鞋，在兴文县中医院的安置点做公益。
-http://ptomntpm6.bkt.clouddn.com/contents/7-1.jpeg
-许久没有出现在大众面前，翟天临略显发福，从出现在网络的视频来看，翟天临还深一脚浅一脚走在泥泞的田间小道，看上去十分辛苦。这种接地气的形象，和翟天临以往的精英形象反差极大。给网络这个永不平静的海，掀起不小的浪花，观点的天平上似乎出现了点赞和质疑的反复失衡。
-http://ptomntpm6.bkt.clouddn.com/contents/7-2.jpeg
-明星做公益，本来是一件值得鼓励的事，但从目前网友的反应来看，却有截然不同的反应。
-有网友认为，作为明星参与公益应该支持，人无完人，心中有一颗善良的心就可以；另一边，更多的网友则质疑，翟天临这次做公益，明显是为自己之前学术不端洗白，有作秀的嫌疑。有网友质疑称，救灾应该有救灾样，穿双拖鞋去救灾，明显就是添麻烦。
-从今年登上春晚演小品“打假”到被学术打假，不过几天的事件，翟天临的人设全面崩溃。此后则造成连串反应，出演的电视剧《老中医》中的片段被删，出演的多部影视剧也无限期搁浅。对于一个上升期的艺人来说，学术造假，无疑让翟天临复出可能微乎其微。曾有过劣迹的艺人，大都会想着复出，亦或是洗白。
-但红星新闻也注意到，近年来不少因各类违法或失德行为而导致事业一落千丈的“劣迹艺人”，都先后高举“公益”大旗，这也似乎成为他们复出道路上的第一道门槛：只有努力公益，才有可能再次走上演艺之路。公益，似乎越来越成为“劣迹明星”的复出套路，屡试不爽。
-就在两个月前，许久不见的吴秀波被爆在西藏某小学做公益，从照片来看，吴秀波的形象和过去差别极大，满头白发胡子，挺着大肚子，身材走形十分严重，和过去帅气的波叔完全无法对上号。从照片来看，吴秀波和孩子们在一起时心情不错，笑容一直挂在脸上。
-http://ptomntpm6.bkt.clouddn.com/contents/7-3.jpeg
-前不久，因不当言论引发争议的赵立新也在风波后首次现身，在北京一家医院探望生病的贫困先心病患儿。在接受媒体采访时，赵立新说“能看到孩子们天真无邪的笑容就够了，觉得一切都值得，都是有意义的。”前段时间，著名影视制作人陈砺志晒出了范冰冰前往西藏做公益的现状，“牙龈痛脸肿三圈不能吃东西，高原反应严重。”
-http://ptomntpm6.bkt.clouddn.com/contents/7-4.jpeg
-值得一提的是，明星做公益，出现在网络的图片似乎都是看热闹的网友自发发布，和艺人明星工作室以及本人似乎没有关系。这一点同样值得商榷，这些图片真的是网友发布？更多的网友和声音则指出，这些表面偷拍的照片，很可能是明星团队拍摄后放到网络，目的当然是希望通过做公益慈善的正能量，获得舆论的再次肯定。
-更多的声音则认为，任何人做公益都应该鼓励和表扬，但怀着一些动机或者套路的明星公益，还是不做为好！
-“劣迹艺人”以公益洗白，到底让人接受吗？《公益时报》曾做过调查，其中接近50%的调查者表示，“坚决排斥试图以公益洗白之举”，可见大部分人对“劣迹艺人”投身公益并不买账。
-新华社在24日就以《翟天临现身震区当志愿者，公益不是劣迹艺人洗白工具》为题发文，文中称，“明星做公益，本身一举两得无可厚非，既帮助了该帮助的人，又给自己的形象加分”，“不过部分‘劣迹艺人’做慈善，不仅全程拍照还第一时间发到网上，甚至相关的宣传软文层出不穷，就不得不让人质疑其动机了”。
-文中毫不客气地提出，“因为基于博爱之心或利他之心，自觉、自愿的行动，显然是公益与慈善的共同根基。而‘劣迹艺人’借道公益慈善出发点显然是利己之心作祟，因此他们的行为传导出来的是并非社会正能量。公益本身是好事，明星如果能够利用自身的影响力来做公益，更是社会的增值福利，但如果是为了自身的名利前途来洗白，请那些不知羞耻的‘劣迹艺人’，放过公益。”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>健身体育</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界呼吸日 郴城百名爱心人士徒步宣传关注尘肺病</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ptomntpm6.bkt.clouddn.com/contents/6-1.jpeg
-6月16日，大爱清尘郴州站号召数百名爱心人士，在北湖公园开展“益呼百行”公益徒步活动。
-http://ptomntpm6.bkt.clouddn.com/contents/6-2.jpeg
-活动倡导社会大众保护环境，关注呼吸健康，关爱尘肺病人。
-6月16日，大爱清尘郴州站号召数百名爱心人士，在北湖公园开展“益呼百行”公益徒步活动，倡导社会大众保护环境，关注呼吸健康，关爱尘肺病人。
-世界呼吸日（World Breath Day)，即每年6月15日，是倡导环境保护与呼吸健康的全球性节日，旨在呼吁民众关注呼吸健康，进而关注呼吸极为困难的尘肺病劳动者群体，是由公益组织大爱清尘联合新浪网于2013年6月15日共同发起创立。
-http://ptomntpm6.bkt.clouddn.com/contents/6-3.jpeg
-志愿者参与吹气球等趣味游戏。
-6月16日上午八点半，“益呼百行”公益活动正式开始。在启动仪式上，活动参与者身着世界呼吸日主题服装，在口罩上涂鸦，与趣味手举牌合影，拍摄与呼吸相关的趣味视频，参与吹气球、屏气30秒等肺活量的挑战游戏，体会尘肺病患者的呼吸艰难。
-大爱清尘公益主题曲词曲创作者、演唱者谢常清来郴参加活动。启动仪式上，谢常清现场演唱公益歌曲《大爱清尘》，并与到场志愿者互动，分享此歌曲创作背后的故事。一次偶然的机会，谢常清从娄底日报记者、志愿者曾国莲处了解到中国最严重的职业病——尘肺病，因感触很深，他希望更多的人（包括自己）了解尘肺病、帮助这个痛苦而弱势的尘肺病群体及家庭，“为大爱清尘写下这首公益歌曲，送给爱心人士及无私奉献的志愿者，希望大家都能奉献一份爱，也祝愿尘肺病患者能够康复远离那份痛。”
-http://ptomntpm6.bkt.clouddn.com/contents/6-4.jpeg
-徒步前，所有在场人员均左手举起，掌心向外挡住口鼻，共同屏气30秒，表达对空气污染的拒绝和对呼吸健康的守护。
-徒步前，所有在场人员均左手举起，掌心向外挡住口鼻，共同屏气30秒，表达对空气污染的拒绝和对呼吸健康的守护。他们从郴州友阿国际广场南广场（北湖公园对面）出发，途径北湖公园、人民路、文化路，到达裕后街，再经北街，返回起点。途中，参与的爱心人士不断向周围的行人宣讲尘肺病知识，通过线下劝募的形式帮助尘肺家庭孩子筹集助学金。
-“益呼百行”由大爱清尘发起，旨在倡导全民呼吸健康，是一档呼吁公众关注承受呼吸痛苦的尘肺农民的全民运动公益活动。6月16日，全国共有92个城市，超过六千人参加此次活动。
-除了全国各地开展的线下活动外，大爱清尘还联合众多明星、快手、咕咚、腾讯新闻、微公益开展形式多样的线上活动，呼吁社会公众关注尘肺病人，关注呼吸健康。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/uploads/images/notices/1-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/notices/2-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/notices/3-1.jpeg</t>
-  </si>
-  <si>
-    <t>/uploads/images/recruit/1-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/recruit/2-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/recruit/3-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/recruit/4-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/recruit/5-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/train/1-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/train/2-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/train/3-1.jpg</t>
   </si>
   <si>
     <t>/uploads/images/train/4-1.jpg</t>
   </si>
   <si>
-    <t>/uploads/images/contents/10-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/contents/9-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/contents/8-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/contents/7-1.jpg</t>
-  </si>
-  <si>
-    <t>/uploads/images/contents/1-1.jpg</t>
+    <t>关于打赢脱贫攻坚战三年行动的指导意见</t>
   </si>
   <si>
     <t>党的十八大以来，以习近平同志为核心的党中央把脱贫攻坚工作纳入“五位一体”总体布局和“四个全面”战略布局，作为实现第一个百年奋斗目标的重点任务，作出一系列重大部署和安排，全面打响脱贫攻坚战。过去5年，我们采取超常规举措，以前所未有的力度推进脱贫攻坚，农村贫困人口显著减少，贫困发生率持续下降，解决区域性整体贫困迈出坚实步伐，贫困地区农民生产生活条件显著改善，贫困群众获得感显著增强，脱贫攻坚取得决定性进展，创造了我国减贫史上的最好成绩。过去5年，我们充分发挥政治优势和制度优势，构筑了全社会扶贫的强大合力，建立了中国特色的脱贫攻坚制度体系，为全球减贫事业贡献了中国智慧和中国方案，谱写了人类反贫困史上的辉煌篇章。
@@ -739,23 +580,12 @@
 防范产业扶贫市场风险，防止产业项目盲目跟风、一刀切导致失败造成损失，各地要对扶贫主导产业面临的技术和市场等风险进行评估，制定防范和处置风险的应对措施。防范扶贫小额贷款还贷风险，纠正户贷企用、违规用款等问题。防范加重地方政府债务风险，防止地方政府以脱贫攻坚名义盲目举债，防止金融机构借支持脱贫攻坚名义违法违规提供融资，坚决遏制地方政府隐性债务增量。
 （九）统筹衔接脱贫攻坚与乡村振兴
 脱贫攻坚期内，贫困地区乡村振兴主要任务是脱贫攻坚。乡村振兴相关支持政策要优先向贫困地区倾斜，补齐基础设施和基本公共服务短板，以乡村振兴巩固脱贫成果。抓紧研究制定2020年后减贫战略。研究推进扶贫开发立法。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于打赢脱贫攻坚战三年行动的指导意见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/uploads/images/data/1-1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>《志愿服务岗位能力培训教材》的推荐语</t>
@@ -764,30 +594,145 @@
     <t xml:space="preserve">【图片1】
 为了给广大志愿者提供专业化、科学化的培训，广州团市委、广州志愿者学院先行先试，在推进志愿服务制度化、标准化发展方面进行了有益探索，组织编辑出版了《志愿服务岗位能力培训教材》（全四册）。本教材根据志愿者的服务时数与岗位角色，分层分级，由浅入深，为不同的志愿者提供相应的学习内容，是一套系统化、专业化较强的志愿者培训教材，也是广大志愿者在从事志愿服务活动时不可多得的参考书。谨向有志于志愿服务的各界朋友推荐阅读此书。希望广大青年朋友踊跃参加中国青年志愿者行动，用志愿服务的实际行动，大力弘扬“奉献、友爱、互助、进步”的志愿精神，坚持与祖国同行、为人民奉献，以青春梦想、用实际行动为实现中国梦作出新的更大贡献。
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>理论类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/uploads/images/data/2-1.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/uploads/images/notices/1.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/uploads/images/notices/4-1.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技素养提升计划助力村小</t>
+  </si>
+  <si>
+    <t>人工智能”“智能制造”“航空航天”“农业科学”“生命科学”……以此为主题的科技课程、教材、教具，将被捐赠到云南、江西、广西等20余省区1000所农村小学，相关校长和教师也将获得培训。这是6月18日在京举行的青少年科技创新教育研讨会上启动的“科技素养提升计划”的主要内容。
+       此次研讨会由科技日报社、中国平安集团、中国下一代教育基金会联合中国教育装备行业协会创造教育分会、南京师范大学、清华大学等机构共同举办。捐赠课程的设计，教材、教具的开发工作由教育部普通高中技术课程标准组组长、南京师范大学教育科学学院院长顾建军教授领衔完成。
+【图片1】
+10年来，中国平安集团在科技领域投入超500亿元，此次利用自身优势，总计投入3858万元，赋能科教育人事业。集团副董事长孙建一表示，“这是企业的社会责任之一，中国平安愿意在下一代身上投入足够的资源，为国家培养科技素质高、创新能力强的青年后备军”。去年5月，科技日报社发布AI教育公益助学千人计划，经过一年努力，其与中国平安共同打造的“科普实验室”作为阶段性成果，列入2018年全国科技活动周重大示范活动，最新计划则是AI公益助学行动升级版。</t>
+  </si>
+  <si>
+    <t>科技科普</t>
+  </si>
+  <si>
+    <t>/uploads/images/contents/10-1.jpg</t>
+  </si>
+  <si>
+    <t>教育公平的“全纳”解法</t>
+  </si>
+  <si>
+    <t>全纳教育需要教师“零拒绝”，满足儿童多样化需求。不仅满足残疾儿童的需求，还要满足智力超常儿童的需求，以及有其他特殊需要儿童的需求，并能对他们进行个性化教学、差异化教学。
+       近年来，全纳教育越来越受到重视。全纳教育倡导教育公平，机会均等，反对歧视，反对排斥平等的教育现象，强调教育覆盖所有适龄儿童，正规教育系统负责所有儿童的教育，普通学校要给有特殊教育需要的儿童提供学习机会、容纳所有的学生。1994年6月10日在西班牙召开的世界特殊需要教育大会上通过了《萨拉曼卡宣言》，该宣言提出了“全纳教育”这一新的教育理念。全纳教育有助于实现教育公平，进而促进社会公平进程。发展全纳教育，需要从建立健全全纳法律法规、培养全纳教师、建立健全全纳支持系统等方面进行努力。
+【图片1】
+建立健全全纳法律法规
+       建立健全全纳法律法规，是我国全纳教育发展的需要，也是其发展的制度保障。
+       美国的全纳教育得以快速发展，与其立法保障是分不开的。美国1975年颁布了《所有残疾儿童教育法案》，后又几经修订完善，在保障残疾儿童享受平等教育方面发挥了积极作用。在1986年又颁布了《残疾儿童保护法》，1990年颁布了《美国残疾人法案》，2001年颁布了《不让一个儿童落后法案》等。几乎每10年就有一部相关法案出台，不断促进全纳教育发展，对教育公平起到了重要保障作用。
+       同样，英国在最近40年的发展过程中，颁布、修订了近十部教育法规。《1976年教育法》第十条明确了支持把残疾儿童置于普通学校，与普通儿童一起受教育的做法。1978年的《沃洛克报告》认为，应该用“学习困难儿童”来取代“残障儿童”的说法。《1981年教育法》中提出保障特殊教育需要，大大促进了英国全纳教育的发展。《1988年教育改革法》、《1993年教育法》为特殊需要教育确立了工作系统。1994年、1997年英国两次对教育法进行了修订，这些为英国的全纳教育发展提供了法律保障。
+       我国与全纳教育相关的法律法规主要有《教育法》《未成年人保护法》《残疾人保障法》等，比较薄弱，迫切需要对全纳政策法规进行研究，出台全纳立法，力争让每个孩子都能接受公平的教育。
+【图片2】
+培养全纳教师
+       根据全纳教育的要求，一方面，教师应具有全纳教育理念；另一方面，教师应具备较高的全纳教育素养。
+       全纳教育要求教师能够根据学生的不同水平、不同文化背景，根据不同学生的需求，进行个别教育，实现个性化教育。这就要求教师能够掌握多层次的教育知识和教学技能。因此，全纳教师的培养势在必行。应根据全纳教育的特点，对教师教育课程内容进行相应的调整优化，重新组织调整课程内容。
+【图片3】
+建立健全全纳支持系统
+       首先，加大对全纳教育的经费投入，建立健全经费保障体系。随着国家的大力支持，我国的全纳教育发展呈快速发展态势。全纳教育的经费主要来源于国家的政策性投入，来自民间组织的投入和个人捐助比重较小。在加大政府对全纳教育投入的同时，还应呼吁全社会关注全纳教育，并对其进行经费资助。
+       中共中央、国务院2008年颁布了《关于促进残疾人事业发展的意见》，要求完善残疾学生助学政策，保障残疾学生与普通适龄儿童一样享有免费接受义务教育的权利。现实中，除了学费之外，特殊需要儿童还需要支付大量的住宿费、交通费、辅助用具费、医疗康复费等，这迫切需要社会分担。
+       此外，全纳师资培养的成本较高。全纳教师职业认同感有待提高，教师挫折感强，要留住这类人才，必须提高全纳教师的社会地位和职业幸福感。这都需要政府的大力投入，以形成中央财政、地方各级财政专项投入的保障体系，做到专款专用。在此基础上，加大全纳教育的宣传，争取更多社会爱心人士的资助。
+       其次，营造全纳社会环境。一方面，配置全纳的社会资源，比如街道、建筑物、公用设备等考虑全纳的元素，设计建造时考虑特殊需要人群的无障碍使用。另一方面，各社区应建立全纳教育活动场所。场所应具有宣传并普及全纳教育知识的功能，能够进行简单康复知识的宣传，能够从事简单的医疗康复训练。</t>
+  </si>
+  <si>
+    <t>理论政策</t>
+  </si>
+  <si>
+    <t>/uploads/images/contents/9-1.jpg</t>
+  </si>
+  <si>
+    <t>青少年阅读教育关爱公益行动启动</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “扶贫先扶志、扶贫必扶智”，孩子是未来的希望，让家庭有困难的孩子们接受到良好的教育，是扶贫工作的重要任务，也是阻断贫困代际传递的重要途径。为协助推动脱贫攻坚，发挥全民阅读推广活动的知识载体作用，由书香中国·北京阅读季领导小组办公室和中国国际扶贫中心共同指导，中国高科集团主办的“青少年阅读教育关爱公益行动”于6月10日在北京市八一学校启动。
+【图片1】
+中国国际扶贫中心副主任谭卫平，中共北京市委宣传部出版处副处长丁惠，中国国际扶贫中心干部贺胜年，北大方正集团有限公司助理总裁陈继友，中国高科集团股份有限公司代行总裁朱怡然，北京市八一学校书记牛震云、北京市八一学校小学部主任陈军，北京大阅文化传播有限公司总经理刘颖等相关领导共同出席了启动活动。活动当天，北京市八一学校学生代表向全校师生发起了为贫困山区捐赠图书的倡议。谭卫平、丁惠、陈继友、朱怡然共同带领号召同学们向贫困山区学校赠书。北京市八一学校学生代表诵读表演《草房子》选段。
+       据主办方介绍，“青少年阅读教育关爱公益行动”将于2019年6月至10月期间，通过开展社区流动书展，呼吁社会关注贫困地区青少年阅读教育，提高市民阅读意识。同时，邀请北京金牌阅读推广人和阅读专家前往四川凉山、贵州雷山的贫困山区学校开展阅读教育讲座，鼓励青少年“多读书、读好书、善读书”，并为当地青少年捐赠实体图书及音频“公益阅读课”，为孩子们筑造知识的殿堂，共建书香校园。 此次“青少年阅读教育关爱公益行动”的举办，旨在传递教育温度、关爱青少年健康成长，期望能够通过阅读教育，激发四川凉山、贵州雷山贫困地区孩子们的读书热情、培育科学思维，更好地用阅读扶智力、扶志气。
+【图片2】
+中国国际扶贫中心副主任谭卫平
+中国国际扶贫中心副主任谭卫平在致词中指出，党的十八大以来，以习近平同志为核心的党中央把脱贫攻坚作为全面建成小康社会的突出短板和底线目标，实施精准扶贫精准脱贫方略，6年来创造了减贫史上的最好成绩。包括北京市八一学校在内的广大中小学生，身在北京、享有丰富的阅读资源，想看什么书，可以去北京的各大图书馆找，也可以上网或者用手机查，非常便利。
+       但是，贫困地区的孩子们可能就没有这样的条件：一是缺少阅读的书籍和便利的网络，二是尚未养成阅读的习惯。书香中国·北京阅读季这次与中国高科集团开展的“青少年阅读教育关爱公益行动”活动，聚焦四川凉山、贵州雷山等贫困程度较深的地区，重点关注这些地区的学校和青少年，可以说是恰逢其时，是服务脱贫攻坚的大局，意义非凡。其中，贵州省雷山县是国务院扶贫办的定点扶贫县。通过阅读教育，其实是要为这些贫困地区的青少年开启一扇窗，让智慧的阳光照进他们的生活，让孩子们的精神世界更丰富，让孩子们从阅读中了解外面的世界，让孩子们通过阅读激发自己的兴趣并为之努力奋斗，让孩子们通过阅读教育鼓起走出贫困、走出大山的勇气。
+【图片3】
+中国高科集团股份有限公司代行总裁朱怡然
+中国高科集团股份有限公司代行总裁朱怡然在讲话中指出，新时代的教育公益需要探索如何让各个地区的孩子都能够公平地享受到更优质的教育机会。作为致力于协助推动教育发展的企业，中国高科集团更重视教育方式方法的创新，希望通过承担企业社会责任，关爱青少年阅读教育，发挥自身教育资源及平台优势，凝聚社会各界多方力量奉献爱心，协助推动教育均衡化的发展和教育公平的实现。从实体图书捐赠、专家现场辅导、公益阅读课捐赠三个方面同时发力，为贫困地区的孩子们打造一个深层次、全方位的阅读环境。
+       为响应党中央“坚决打赢扶贫攻坚战”的号召，认真落实北京市委市政府关于做好扶贫协作和支援合作决策部署，按照书香中国·北京全民阅读领导小组年度工作整体规划，近年来积极推进“扶贫”工作，从2018年推出首都新闻出版“扶贫+阅读扶智计划”活动，到2019年“青少年阅读教育关爱公益行动”，都是为凝聚广大社会力量，共同行动，共同努力，助力打赢扶贫攻坚战，贡献应有之力。
+       中国高科集团于1992年由教育部牵头，国内多所著名高等院校共同发起创立，是具有高校背景并且专注于教育领域的A股上市公司。集团拥有强大的社会公信力及产业整合优势，坚持把“支持国家发展战略，以上市公司平台反哺教育”作为己任，积极承担企业社会责任，心系青少年健康成长，助力国家推动教育扶贫及教育公平，努力为我国教育事业的发展贡献力量。</t>
+  </si>
+  <si>
+    <t>教育素质</t>
+  </si>
+  <si>
+    <t>/uploads/images/contents/8-1.jpg</t>
+  </si>
+  <si>
+    <t>去震区做公益？劣迹明星的公益翻身套路该歇歇了</t>
+  </si>
+  <si>
+    <t>许久不见的翟天临上热搜了，这一次不是演戏和学术造假纷争，而是在宜宾的地震灾区做公益。其实，这并非坏事，甚至是好事，至少有心就好。不过，这更像是劣迹明星的公益套路。
+从网络曝光的图片来看，翟天临头戴志愿者红帽，左手还戴着一个志愿者的红色袖套，脚蹬一双夹趾拖鞋，在兴文县中医院的安置点做公益。
+http://ptomntpm6.bkt.clouddn.com/contents/7-1.jpeg
+许久没有出现在大众面前，翟天临略显发福，从出现在网络的视频来看，翟天临还深一脚浅一脚走在泥泞的田间小道，看上去十分辛苦。这种接地气的形象，和翟天临以往的精英形象反差极大。给网络这个永不平静的海，掀起不小的浪花，观点的天平上似乎出现了点赞和质疑的反复失衡。
+http://ptomntpm6.bkt.clouddn.com/contents/7-2.jpeg
+明星做公益，本来是一件值得鼓励的事，但从目前网友的反应来看，却有截然不同的反应。
+有网友认为，作为明星参与公益应该支持，人无完人，心中有一颗善良的心就可以；另一边，更多的网友则质疑，翟天临这次做公益，明显是为自己之前学术不端洗白，有作秀的嫌疑。有网友质疑称，救灾应该有救灾样，穿双拖鞋去救灾，明显就是添麻烦。
+从今年登上春晚演小品“打假”到被学术打假，不过几天的事件，翟天临的人设全面崩溃。此后则造成连串反应，出演的电视剧《老中医》中的片段被删，出演的多部影视剧也无限期搁浅。对于一个上升期的艺人来说，学术造假，无疑让翟天临复出可能微乎其微。曾有过劣迹的艺人，大都会想着复出，亦或是洗白。
+但红星新闻也注意到，近年来不少因各类违法或失德行为而导致事业一落千丈的“劣迹艺人”，都先后高举“公益”大旗，这也似乎成为他们复出道路上的第一道门槛：只有努力公益，才有可能再次走上演艺之路。公益，似乎越来越成为“劣迹明星”的复出套路，屡试不爽。
+就在两个月前，许久不见的吴秀波被爆在西藏某小学做公益，从照片来看，吴秀波的形象和过去差别极大，满头白发胡子，挺着大肚子，身材走形十分严重，和过去帅气的波叔完全无法对上号。从照片来看，吴秀波和孩子们在一起时心情不错，笑容一直挂在脸上。
+http://ptomntpm6.bkt.clouddn.com/contents/7-3.jpeg
+前不久，因不当言论引发争议的赵立新也在风波后首次现身，在北京一家医院探望生病的贫困先心病患儿。在接受媒体采访时，赵立新说“能看到孩子们天真无邪的笑容就够了，觉得一切都值得，都是有意义的。”前段时间，著名影视制作人陈砺志晒出了范冰冰前往西藏做公益的现状，“牙龈痛脸肿三圈不能吃东西，高原反应严重。”
+http://ptomntpm6.bkt.clouddn.com/contents/7-4.jpeg
+值得一提的是，明星做公益，出现在网络的图片似乎都是看热闹的网友自发发布，和艺人明星工作室以及本人似乎没有关系。这一点同样值得商榷，这些图片真的是网友发布？更多的网友和声音则指出，这些表面偷拍的照片，很可能是明星团队拍摄后放到网络，目的当然是希望通过做公益慈善的正能量，获得舆论的再次肯定。
+更多的声音则认为，任何人做公益都应该鼓励和表扬，但怀着一些动机或者套路的明星公益，还是不做为好！
+“劣迹艺人”以公益洗白，到底让人接受吗？《公益时报》曾做过调查，其中接近50%的调查者表示，“坚决排斥试图以公益洗白之举”，可见大部分人对“劣迹艺人”投身公益并不买账。
+新华社在24日就以《翟天临现身震区当志愿者，公益不是劣迹艺人洗白工具》为题发文，文中称，“明星做公益，本身一举两得无可厚非，既帮助了该帮助的人，又给自己的形象加分”，“不过部分‘劣迹艺人’做慈善，不仅全程拍照还第一时间发到网上，甚至相关的宣传软文层出不穷，就不得不让人质疑其动机了”。
+文中毫不客气地提出，“因为基于博爱之心或利他之心，自觉、自愿的行动，显然是公益与慈善的共同根基。而‘劣迹艺人’借道公益慈善出发点显然是利己之心作祟，因此他们的行为传导出来的是并非社会正能量。公益本身是好事，明星如果能够利用自身的影响力来做公益，更是社会的增值福利，但如果是为了自身的名利前途来洗白，请那些不知羞耻的‘劣迹艺人’，放过公益。”</t>
+  </si>
+  <si>
+    <t>健身体育</t>
+  </si>
+  <si>
+    <t>/uploads/images/contents/7-1.jpg</t>
+  </si>
+  <si>
+    <t>世界呼吸日 郴城百名爱心人士徒步宣传关注尘肺病</t>
+  </si>
+  <si>
+    <t>http://ptomntpm6.bkt.clouddn.com/contents/6-1.jpeg
+6月16日，大爱清尘郴州站号召数百名爱心人士，在北湖公园开展“益呼百行”公益徒步活动。
+http://ptomntpm6.bkt.clouddn.com/contents/6-2.jpeg
+活动倡导社会大众保护环境，关注呼吸健康，关爱尘肺病人。
+6月16日，大爱清尘郴州站号召数百名爱心人士，在北湖公园开展“益呼百行”公益徒步活动，倡导社会大众保护环境，关注呼吸健康，关爱尘肺病人。
+世界呼吸日（World Breath Day)，即每年6月15日，是倡导环境保护与呼吸健康的全球性节日，旨在呼吁民众关注呼吸健康，进而关注呼吸极为困难的尘肺病劳动者群体，是由公益组织大爱清尘联合新浪网于2013年6月15日共同发起创立。
+http://ptomntpm6.bkt.clouddn.com/contents/6-3.jpeg
+志愿者参与吹气球等趣味游戏。
+6月16日上午八点半，“益呼百行”公益活动正式开始。在启动仪式上，活动参与者身着世界呼吸日主题服装，在口罩上涂鸦，与趣味手举牌合影，拍摄与呼吸相关的趣味视频，参与吹气球、屏气30秒等肺活量的挑战游戏，体会尘肺病患者的呼吸艰难。
+大爱清尘公益主题曲词曲创作者、演唱者谢常清来郴参加活动。启动仪式上，谢常清现场演唱公益歌曲《大爱清尘》，并与到场志愿者互动，分享此歌曲创作背后的故事。一次偶然的机会，谢常清从娄底日报记者、志愿者曾国莲处了解到中国最严重的职业病——尘肺病，因感触很深，他希望更多的人（包括自己）了解尘肺病、帮助这个痛苦而弱势的尘肺病群体及家庭，“为大爱清尘写下这首公益歌曲，送给爱心人士及无私奉献的志愿者，希望大家都能奉献一份爱，也祝愿尘肺病患者能够康复远离那份痛。”
+http://ptomntpm6.bkt.clouddn.com/contents/6-4.jpeg
+徒步前，所有在场人员均左手举起，掌心向外挡住口鼻，共同屏气30秒，表达对空气污染的拒绝和对呼吸健康的守护。
+徒步前，所有在场人员均左手举起，掌心向外挡住口鼻，共同屏气30秒，表达对空气污染的拒绝和对呼吸健康的守护。他们从郴州友阿国际广场南广场（北湖公园对面）出发，途径北湖公园、人民路、文化路，到达裕后街，再经北街，返回起点。途中，参与的爱心人士不断向周围的行人宣讲尘肺病知识，通过线下劝募的形式帮助尘肺家庭孩子筹集助学金。
+“益呼百行”由大爱清尘发起，旨在倡导全民呼吸健康，是一档呼吁公众关注承受呼吸痛苦的尘肺农民的全民运动公益活动。6月16日，全国共有92个城市，超过六千人参加此次活动。
+除了全国各地开展的线下活动外，大爱清尘还联合众多明星、快手、咕咚、腾讯新闻、微公益开展形式多样的线上活动，呼吁社会公众关注尘肺病人，关注呼吸健康。</t>
+  </si>
+  <si>
+    <t>/uploads/images/contents/1-1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,14 +744,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -814,24 +751,355 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -839,32 +1107,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1122,30 +1676,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="125.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.2232142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7767857142857" customWidth="1"/>
+    <col min="3" max="3" width="15.7767857142857" customWidth="1"/>
+    <col min="4" max="4" width="125.883928571429" customWidth="1"/>
+    <col min="5" max="5" width="14.4375" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="13" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1161,15 +1715,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1178,302 +1732,303 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="3" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="4" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://ptomntpm6.bkt.clouddn.com/notices/1-1.jpg_x000a_为纪念福利彩票双色球上市15周年和2018年双色球10亿元派奖活动，中国福利彩票发行管理中心组织开展“双色球与福彩公益人‘益路同行’ 活动”。本次活动以“双色球益路同行”为主题，以“走进福彩公益新时代”为口号，涵盖公益文化、公益贡献个人、绿色环保公益、运动健康公益四个领域，从福彩人的角度传播福彩公益品牌。_x000a__x000a_一、活动内容和规则：_x000a__x000a_本活动由中福彩中心及媒体人代表从全国各省福彩报名人员中选出30位福彩双色球公益人，其中甘肃省兰州市被选中1位。活动启动后，每位公益人分别代表一个健步走战队，活动参与者进入活动页面即可加入一个战队，将自己的健步里程，捐赠到战队中，并将活动对外传播，拉更多的人加入战队。最终按照战队累积健步里程数排名选出10名最具代表性的公益人物，成为福彩双色球年度公益代表人物。_x000a__x000a_二、活动平台：_x000a__x000a_活动将在“福彩运动”微信小程序、“福彩乐透”APP两个平台同时开展，并将在新华网搭建的PC端平台展示。_x000a__x000a_三、活动时间：_x000a__x000a_2018年11月26日至12月3日，共8天。_x000a__x000a_四、活动流程和抽奖：_x000a__x000a_1、查看福彩公益人资料。（甘肃战队：姓名、宣言及个人事迹等）_x000a__x000a_2、选定加入战队，浏览公益人资料。_x000a__x000a_3、给自己战队捐步数。加入公益人战队后，点击捐步，即为选中的公益人进行捐步，捐步后可参与抽奖。_x000a__x000a_4、战队参与人根据页面提示填写个人手机号码，作为奖品发放唯一凭证，便于通知领奖。_x000a__x000a_五、活动奖品：_x000a__x000a_一等奖： 华为p20手机 14部_x000a__x000a_二等奖： 100元话费 42 个_x000a__x000a_三等奖： 50元话费 420 个_x000a__x000a_四等奖： 30元话费 700 个_x000a__x000a_六、活动要求：_x000a__x000a_福彩中心和中福在线销售厅员工（包括县区销售厅）、各投注站业主销售员、刮刮乐配送员及广大彩民等均可参与。_x000a__x000a_兰州市福利彩票发行中心_x000a__x000a_2018年11月26日" xr:uid="{95198FA0-BC29-496F-B9CB-C17E8FDACABF}"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://ptomntpm6.bkt.clouddn.com/notices/3-1.jpeg_x000a_6月7日上午，“文明阳城 与爱同行”2019年爱心送考大型公益活动在府前广场正式启动。副县长郭向阳出席启动仪式。_x000a__x000a_启动仪式现场，来自我县各出租车公司和社会各界的爱心送考车整装待发，每辆爱心送考车在前挡风玻璃或车身侧面贴上了“爱心送考”的字样标识，反光镜悬挂绿丝带，准备前往县城各住所接送高考考生，全力服务考生。 _x000a__x000a_对于爱心人士来说，关心考生就像关心自己的孩子一样，通过无偿服务奉献，传递着向上向善的社会正能量。_x000a__x000a_爱心助考活动中，北京能源阳城加油站也心系广大莘莘学子，积极加入爱心助考的行列，在往年工作的基础上，进一步完善爱心服务，开设了高考加油绿色通道，为180多辆爱心送考车免费赠送80公里里程的油料，确保考生顺利参加考试。_x000a__x000a_据了解今年参加送考活动的共有来自社会各界的180多辆“爱心送考车”，考生可凭准考证免费乘坐，一名家长可免费随行，“爱心送考车”随机搭载考生，途经临时交通管制地点时，交警可优先指挥放行，确保安全、准时、准确地将考生送到考场，考生考试结束后，可免费乘坐“爱心送考车”返家。" xr:uid="{54CFAFB2-6E07-47BA-B0B1-EAB89D2A40BB}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://ptomntpm6.bkt.clouddn.com/notices/1-1.jpg&#10;为纪念福利彩票双色球上市15周年和2018年双色球10亿元派奖活动，中国福利彩票发行管理中心组织开展“双色球与福彩公益人‘益路同行’ 活动”。本次活动以“双色球益路同行”为主题，以“走进福彩公益新时代”为口号，涵盖公益文化、公益贡献个人、绿色环保公益、运动健康公益四个领域，从福彩人的角度传播福彩公益品牌。&#10;&#10;一、活动内容和规则：&#10;&#10;本活动由中福彩中心及媒体人代表从全国各省福彩报名人员中选出30位福彩双色球公益人，其中甘肃省兰州市被选中1位。活动启动后，每位公益人分别代表一个健步走战队，活动参与者进入活动页面即可加入一个战队，将自己的健步里程，捐赠到战队中，并将活动对外传播，拉更多的人加入战队。最终按照战队累积健步里程数排名选出10名最具代表性的公益人物，成为福彩双色球年度公益代表人物。&#10;&#10;二、活动平台：&#10;&#10;活动将在“福彩运动”微信小程序、“福彩乐透”APP两个平台同时开展，并将在新华网搭建的PC端平台展示。&#10;&#10;三、活动时间：&#10;&#10;2018年11月26日至12月3日，共8天。&#10;&#10;四、活动流程和抽奖：&#10;&#10;1、查看福彩公益人资料。（甘肃战队：姓名、宣言及个人事迹等）&#10;&#10;2、选定加入战队，浏览公益人资料。&#10;&#10;3、给自己战队捐步数。加入公益人战队后，点击捐步，即为选中的公益人进行捐步，捐步后可参与抽奖。&#10;&#10;4、战队参与人根据页面提示填写个人手机号码，作为奖品发放唯一凭证，便于通知领奖。&#10;&#10;五、活动奖品：&#10;&#10;一等奖： 华为p20手机 14部&#10;&#10;二等奖： 100元话费 42 个&#10;&#10;三等奖： 50元话费 420 个&#10;&#10;四等奖： 30元话费 700 个&#10;&#10;六、活动要求：&#10;&#10;福彩中心和中福在线销售厅员工（包括县区销售厅）、各投注站业主销售员、刮刮乐配送员及广大彩民等均可参与。&#10;&#10;兰州市福利彩票发行中心&#10;&#10;2018年11月26日"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://ptomntpm6.bkt.clouddn.com/notices/3-1.jpeg&#10;6月7日上午，“文明阳城 与爱同行”2019年爱心送考大型公益活动在府前广场正式启动。副县长郭向阳出席启动仪式。&#10;&#10;启动仪式现场，来自我县各出租车公司和社会各界的爱心送考车整装待发，每辆爱心送考车在前挡风玻璃或车身侧面贴上了“爱心送考”的字样标识，反光镜悬挂绿丝带，准备前往县城各住所接送高考考生，全力服务考生。 &#10;&#10;对于爱心人士来说，关心考生就像关心自己的孩子一样，通过无偿服务奉献，传递着向上向善的社会正能量。&#10;&#10;爱心助考活动中，北京能源阳城加油站也心系广大莘莘学子，积极加入爱心助考的行列，在往年工作的基础上，进一步完善爱心服务，开设了高考加油绿色通道，为180多辆爱心送考车免费赠送80公里里程的油料，确保考生顺利参加考试。&#10;&#10;据了解今年参加送考活动的共有来自社会各界的180多辆“爱心送考车”，考生可凭准考证免费乘坐，一名家长可免费随行，“爱心送考车”随机搭载考生，途经临时交通管制地点时，交警可优先指挥放行，确保安全、准时、准确地将考生送到考场，考生考试结束后，可免费乘坐“爱心送考车”返家。"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86577308-FE06-4F6A-9E61-0ADCE124679B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="37.3303571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.2232142857143" customWidth="1"/>
     <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6607142857143" customWidth="1"/>
+    <col min="6" max="6" width="30.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="40.05" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1489,73 +2044,74 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.05" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="40.05" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>77</v>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7027EF-7C7E-4D4E-97C9-5E252E7D3752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" customWidth="1"/>
-    <col min="4" max="4" width="66.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.5535714285714" customWidth="1"/>
+    <col min="4" max="4" width="66.6607142857143" customWidth="1"/>
+    <col min="5" max="5" width="15.2232142857143" customWidth="1"/>
+    <col min="6" max="6" width="31.8839285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="13" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1571,112 +2127,112 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.05" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="40.05" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>44</v>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" ht="40.05" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" ht="40.05" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="40.05" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>53</v>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>